--- a/doc/LFSR_Calculations.xlsx
+++ b/doc/LFSR_Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Charley Lucas\work_hw\arty_e310\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30FFAE-4416-4017-B9E6-BC87043CD3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C890A-5766-4AAF-89FF-5CCD70BB3D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13305" yWindow="2610" windowWidth="38700" windowHeight="18165" activeTab="1" xr2:uid="{F88BD82E-167A-435E-9556-7854A5BDB32B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
   <si>
     <t>1SB2</t>
   </si>
@@ -218,18 +218,6 @@
   </si>
   <si>
     <t>7SB1</t>
-  </si>
-  <si>
-    <t>6 Step:</t>
-  </si>
-  <si>
-    <t>7 Step:</t>
-  </si>
-  <si>
-    <t>8 Step:</t>
-  </si>
-  <si>
-    <t>9 Step:</t>
   </si>
   <si>
     <t>6SB6</t>
@@ -468,13 +456,75 @@
 O7^
 O3</t>
   </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -508,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -525,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,11 +1081,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1040,92 +1093,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4999F10C-BEF5-4551-9CD0-556967C164DF}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="3">
         <v>0</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="L1" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1" s="3">
         <v>1</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <v>2</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O1" s="3">
         <v>3</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="3">
         <v>4</v>
       </c>
-      <c r="P1" s="3">
+      <c r="Q1" s="3">
         <v>5</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="R1" s="3">
         <v>6</v>
       </c>
-      <c r="R1" s="3">
+      <c r="S1" s="3">
         <v>7</v>
       </c>
-      <c r="S1" s="3">
+      <c r="T1" s="3">
         <v>8</v>
       </c>
-      <c r="T1" s="3">
+      <c r="U1" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1135,19 +1191,20 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>59</v>
@@ -1165,51 +1222,54 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>105</v>
+      <c r="Q3" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>60</v>
@@ -1227,51 +1287,54 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>105</v>
+      <c r="R4" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>61</v>
@@ -1289,48 +1352,51 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>62</v>
@@ -1351,51 +1417,54 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="M6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="P6" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>40</v>
@@ -1413,51 +1482,54 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>105</v>
+      <c r="M7" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
@@ -1475,51 +1547,54 @@
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>105</v>
+      <c r="N8" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>42</v>
@@ -1537,51 +1612,54 @@
         <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>105</v>
+      <c r="O9" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>44</v>
@@ -1599,46 +1677,49 @@
         <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>105</v>
+      <c r="P10" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/LFSR_Calculations.xlsx
+++ b/doc/LFSR_Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Charley Lucas\work_hw\arty_e310\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399C890A-5766-4AAF-89FF-5CCD70BB3D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26E242C-8DF5-4A47-AFF7-BFA283EAD254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="2610" windowWidth="38700" windowHeight="18165" activeTab="1" xr2:uid="{F88BD82E-167A-435E-9556-7854A5BDB32B}"/>
+    <workbookView xWindow="12900" yWindow="2610" windowWidth="38700" windowHeight="18165" activeTab="1" xr2:uid="{F88BD82E-167A-435E-9556-7854A5BDB32B}"/>
   </bookViews>
   <sheets>
     <sheet name="4bit5bpc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="150">
   <si>
     <t>1SB2</t>
   </si>
@@ -82,27 +82,6 @@
     <t>BPC:</t>
   </si>
   <si>
-    <t>1 Step:</t>
-  </si>
-  <si>
-    <t>^O3</t>
-  </si>
-  <si>
-    <t>^O2</t>
-  </si>
-  <si>
-    <t>^(O1^O3)</t>
-  </si>
-  <si>
-    <t>^(O2^O0)</t>
-  </si>
-  <si>
-    <t>^((O1^O3)^O3)</t>
-  </si>
-  <si>
-    <t>2 Step:</t>
-  </si>
-  <si>
     <t>2SB2</t>
   </si>
   <si>
@@ -115,9 +94,6 @@
     <t>2SB1</t>
   </si>
   <si>
-    <t>3 Step:</t>
-  </si>
-  <si>
     <t>3SB3</t>
   </si>
   <si>
@@ -130,9 +106,6 @@
     <t>3SB2</t>
   </si>
   <si>
-    <t>4 Step:</t>
-  </si>
-  <si>
     <t>4SB0</t>
   </si>
   <si>
@@ -143,9 +116,6 @@
   </si>
   <si>
     <t>4SB3</t>
-  </si>
-  <si>
-    <t>5 Step:</t>
   </si>
   <si>
     <t>5SB1</t>
@@ -509,6 +479,70 @@
   </si>
   <si>
     <t>B7</t>
+  </si>
+  <si>
+    <t>Out0</t>
+  </si>
+  <si>
+    <t>Out1</t>
+  </si>
+  <si>
+    <t>Out2</t>
+  </si>
+  <si>
+    <t>Out3</t>
+  </si>
+  <si>
+    <t>Out4</t>
+  </si>
+  <si>
+    <t>Out5</t>
+  </si>
+  <si>
+    <t>Out6</t>
+  </si>
+  <si>
+    <t>Out7</t>
+  </si>
+  <si>
+    <t>(O7^O3)</t>
+  </si>
+  <si>
+    <t>(O6^O7^O2)</t>
+  </si>
+  <si>
+    <t>(O5^O6^O7^O1)</t>
+  </si>
+  <si>
+    <t>(O4^O5^O6^O0)</t>
+  </si>
+  <si>
+    <t>((O7^O3)^O4^O5^O7)</t>
+  </si>
+  <si>
+    <t>Out8</t>
+  </si>
+  <si>
+    <t>O3^
+O1</t>
+  </si>
+  <si>
+    <t>(O3^O1)^
+O0</t>
+  </si>
+  <si>
+    <t>((O3^O1)^
+O0)^
+O3</t>
+  </si>
+  <si>
+    <t>(((O3^O1)^O0)^O3)^
+O2</t>
+  </si>
+  <si>
+    <t>((O3^O1)^O0)^O3)^
+(O3^
+O1</t>
   </si>
 </sst>
 </file>
@@ -893,195 +927,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6448E822-DDB6-41CA-A260-F268DCB70931}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>3</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>4</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>95</v>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4999F10C-BEF5-4551-9CD0-556967C164DF}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,37 +1292,37 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J1" s="3">
         <v>0</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L1" s="3">
         <v>0</v>
@@ -1193,533 +1376,848 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="U3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="Q16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="S16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="U16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="P17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="P19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>